--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>School</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Committee？</t>
   </si>
   <si>
-    <t>SOP</t>
+    <t>Send?</t>
   </si>
   <si>
     <t>Pass</t>
@@ -40,18 +40,30 @@
     <t>Caltech</t>
   </si>
   <si>
+    <t>Ye</t>
+  </si>
+  <si>
     <t>Uchi</t>
   </si>
   <si>
+    <t>Zheng?</t>
+  </si>
+  <si>
     <t>Princeton</t>
   </si>
   <si>
+    <t>Sanfeng Wu</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>Yale</t>
   </si>
   <si>
+    <t>Becton 326</t>
+  </si>
+  <si>
     <t>UCB</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>University of Washington</t>
   </si>
   <si>
+    <t>xuxd@uw.edu.</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
@@ -88,6 +103,9 @@
     <t>Purdue</t>
   </si>
   <si>
+    <t>Tongcang (Tony) Li</t>
+  </si>
+  <si>
     <t>PSU</t>
   </si>
   <si>
@@ -101,9 +119,6 @@
   </si>
   <si>
     <t>Huang</t>
-  </si>
-  <si>
-    <t>Describe your intended plan of study or the particular subdivision of the major field in which you wish to specialize. Discuss any scholarly research, writing, or similar research that you have done or are currently pursuing. Include other information that may be helpful in evaluating your application.</t>
   </si>
   <si>
     <t>Xzq04100310!</t>
@@ -114,19 +129,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -156,16 +158,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +486,7 @@
     <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -492,7 +497,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -510,7 +515,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -526,7 +531,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -536,213 +541,229 @@
         <v>7</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>School</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Ye</t>
   </si>
   <si>
+    <t>schedue</t>
+  </si>
+  <si>
     <t>Uchi</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>UCB</t>
   </si>
   <si>
+    <t>Yuan Cao</t>
+  </si>
+  <si>
     <t>Meng</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>Purdue</t>
   </si>
   <si>
+    <t>Hanzhe Liu</t>
+  </si>
+  <si>
     <t>Tongcang (Tony) Li</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
   </si>
   <si>
     <t>Columbia</t>
+  </si>
+  <si>
+    <t>Umich</t>
+  </si>
+  <si>
+    <t>Liuyan Zhao</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Yongjie Hu</t>
   </si>
   <si>
     <t>Rice</t>
@@ -129,13 +150,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +173,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -158,10 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -474,20 +511,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -545,18 +582,20 @@
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -566,27 +605,29 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -596,17 +637,19 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -614,12 +657,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -628,14 +671,14 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
@@ -644,7 +687,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -656,7 +699,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -668,7 +711,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -680,15 +723,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -696,7 +739,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -708,11 +751,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
@@ -722,7 +767,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -734,36 +779,64 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>School</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Tongcang (Tony) Li</t>
+  </si>
+  <si>
+    <t>zenglab2024</t>
   </si>
   <si>
     <t>PSU</t>
@@ -150,13 +153,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -200,7 +209,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -527,7 +536,7 @@
     <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -537,7 +546,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -559,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -571,7 +580,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -587,7 +596,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -601,7 +610,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -619,7 +628,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -633,7 +642,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -653,7 +662,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -667,7 +676,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -683,7 +692,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -695,7 +704,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -707,7 +716,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -719,7 +728,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -735,7 +744,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -747,7 +756,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -759,15 +768,17 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -775,11 +786,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -793,11 +804,11 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
@@ -807,27 +818,27 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
@@ -836,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>School</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Penn State</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -116,6 +119,12 @@
   </si>
   <si>
     <t>zenglab2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WJ</t>
   </si>
   <si>
     <t>PSU</t>
@@ -201,12 +210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -526,14 +538,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -758,27 +770,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -788,9 +806,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -804,41 +824,41 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
@@ -847,7 +867,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>School</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Caltech</t>
+  </si>
+  <si>
+    <t>Linda Ye</t>
   </si>
   <si>
     <t>Uchi</t>
@@ -156,16 +159,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,14 +484,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -492,7 +501,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -510,7 +519,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -526,7 +535,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -536,213 +545,215 @@
         <v>7</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>School</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Committee？</t>
   </si>
   <si>
-    <t>SOP</t>
+    <t>Send?</t>
   </si>
   <si>
     <t>Pass</t>
@@ -40,24 +40,39 @@
     <t>Caltech</t>
   </si>
   <si>
-    <t>Linda Ye</t>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>schedue</t>
   </si>
   <si>
     <t>Uchi</t>
   </si>
   <si>
+    <t>Zheng?</t>
+  </si>
+  <si>
     <t>Princeton</t>
   </si>
   <si>
+    <t>Sanfeng Wu</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>Yale</t>
   </si>
   <si>
+    <t>Becton 326</t>
+  </si>
+  <si>
     <t>UCB</t>
   </si>
   <si>
+    <t>Yuan Cao</t>
+  </si>
+  <si>
     <t>Meng</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>University of Washington</t>
   </si>
   <si>
+    <t>xuxd@uw.edu.</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
@@ -88,15 +106,45 @@
     <t>Penn State</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>Purdue</t>
   </si>
   <si>
+    <t>Hanzhe Liu</t>
+  </si>
+  <si>
+    <t>Tongcang (Tony) Li</t>
+  </si>
+  <si>
+    <t>zenglab2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WJ</t>
+  </si>
+  <si>
     <t>PSU</t>
   </si>
   <si>
     <t>Columbia</t>
   </si>
   <si>
+    <t>Umich</t>
+  </si>
+  <si>
+    <t>Liuyan Zhao</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Yongjie Hu</t>
+  </si>
+  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -104,9 +152,6 @@
   </si>
   <si>
     <t>Huang</t>
-  </si>
-  <si>
-    <t>Describe your intended plan of study or the particular subdivision of the major field in which you wish to specialize. Discuss any scholarly research, writing, or similar research that you have done or are currently pursuing. Include other information that may be helpful in evaluating your application.</t>
   </si>
   <si>
     <t>Xzq04100310!</t>
@@ -117,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +172,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -159,15 +210,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -478,23 +532,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -504,7 +558,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -526,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -538,7 +592,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -549,96 +603,112 @@
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -646,11 +716,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -658,11 +728,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -670,25 +740,27 @@
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -696,23 +768,35 @@
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -720,40 +804,70 @@
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>School</t>
   </si>
@@ -61,6 +61,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Yale</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>Meng</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>UIUC</t>
   </si>
   <si>
@@ -97,15 +97,18 @@
     <t>USC</t>
   </si>
   <si>
+    <t>Yunqiu Kelly Luo</t>
+  </si>
+  <si>
+    <t>Anupam Madhukar</t>
+  </si>
+  <si>
     <t>Brown</t>
   </si>
   <si>
     <t>Bai</t>
   </si>
   <si>
-    <t>Penn State</t>
-  </si>
-  <si>
     <t>want</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>zenglab2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>WJ</t>
   </si>
   <si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Umich</t>
+  </si>
+  <si>
+    <t>dengh@umich.edu</t>
   </si>
   <si>
     <t>Liuyan Zhao</t>
@@ -162,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +176,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -210,18 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -532,20 +523,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -636,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -644,11 +635,11 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -658,19 +649,19 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -699,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
@@ -734,8 +725,12 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -744,50 +739,50 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
@@ -796,78 +791,66 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -539,7 +539,7 @@
     <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -549,7 +549,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -583,7 +583,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -599,7 +599,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -613,7 +613,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -645,7 +645,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -665,7 +665,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -679,7 +679,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -695,7 +695,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -707,7 +707,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -719,7 +719,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -735,7 +735,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -751,7 +751,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
@@ -771,7 +771,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -785,7 +785,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -801,7 +801,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -817,7 +817,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -831,7 +831,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>School</t>
   </si>
@@ -43,13 +43,16 @@
     <t>Ye</t>
   </si>
   <si>
-    <t>schedue</t>
+    <t>undecided</t>
   </si>
   <si>
     <t>Uchi</t>
   </si>
   <si>
-    <t>Zheng?</t>
+    <t/>
+  </si>
+  <si>
+    <t>Zheng</t>
   </si>
   <si>
     <t>Princeton</t>
@@ -70,6 +73,9 @@
     <t>Becton 326</t>
   </si>
   <si>
+    <t>no match</t>
+  </si>
+  <si>
     <t>UCB</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>Meng</t>
   </si>
   <si>
+    <t>yes, meeting</t>
+  </si>
+  <si>
     <t>UIUC</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>zenglab2024</t>
   </si>
   <si>
+    <t>zeng reply</t>
+  </si>
+  <si>
     <t>WJ</t>
   </si>
   <si>
@@ -142,10 +154,16 @@
     <t>Liuyan Zhao</t>
   </si>
   <si>
+    <t>not, no match</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
     <t>Yongjie Hu</t>
+  </si>
+  <si>
+    <t>not</t>
   </si>
   <si>
     <t>Rice</t>
@@ -207,12 +225,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -529,14 +553,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -605,29 +629,33 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -635,33 +663,35 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -669,12 +699,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -683,23 +713,25 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -711,7 +743,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -723,13 +755,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -739,45 +771,47 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -788,15 +822,15 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
@@ -805,52 +839,56 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>School</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Uchi</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Zheng</t>
@@ -225,18 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -553,17 +544,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -573,7 +564,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -595,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -607,7 +598,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -623,115 +614,111 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -739,11 +726,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -751,67 +738,67 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -819,76 +806,76 @@
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>School</t>
   </si>
@@ -145,22 +145,19 @@
     <t>Umich</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>dengh@umich.edu</t>
   </si>
   <si>
-    <t>Liuyan Zhao</t>
-  </si>
-  <si>
-    <t>not, no match</t>
+    <t>not</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
     <t>Yongjie Hu</t>
-  </si>
-  <si>
-    <t>not</t>
   </si>
   <si>
     <t>Rice</t>
@@ -222,13 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -544,14 +544,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -828,7 +828,7 @@
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -852,7 +852,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -860,13 +860,13 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -875,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>School</t>
   </si>
@@ -34,72 +34,87 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Kiyoul Yang</t>
+  </si>
+  <si>
+    <t>Evelyn Hu</t>
+  </si>
+  <si>
     <t>Harvard</t>
   </si>
   <si>
+    <t>Kang-Kuen Ni</t>
+  </si>
+  <si>
+    <t>Su-Yang Xu</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Xiaomeng Liu</t>
+  </si>
+  <si>
     <t>Caltech</t>
   </si>
   <si>
     <t>Ye</t>
   </si>
   <si>
-    <t>undecided</t>
-  </si>
-  <si>
     <t>Uchi</t>
   </si>
   <si>
-    <t>Zheng</t>
+    <t>Tian Zhong</t>
   </si>
   <si>
     <t>Princeton</t>
   </si>
   <si>
-    <t>Sanfeng Wu</t>
+    <t>Saien Xie</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Hong Tang</t>
+  </si>
+  <si>
+    <t>Mengxia Liu</t>
+  </si>
+  <si>
+    <t>Eric Y. Ma</t>
+  </si>
+  <si>
+    <t>Mengjie Yu</t>
+  </si>
+  <si>
+    <t>Haoning Tang</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>Feng Wang</t>
+  </si>
+  <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>UIUC</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Becton 326</t>
-  </si>
-  <si>
-    <t>no match</t>
-  </si>
-  <si>
-    <t>UCB</t>
-  </si>
-  <si>
-    <t>Yuan Cao</t>
-  </si>
-  <si>
-    <t>Meng</t>
-  </si>
-  <si>
-    <t>yes, meeting</t>
-  </si>
-  <si>
-    <t>UIUC</t>
-  </si>
-  <si>
     <t>University of Washington</t>
   </si>
   <si>
     <t>xuxd@uw.edu.</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>UCSB</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
@@ -115,9 +130,6 @@
     <t>Bai</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
   </si>
   <si>
     <t>Umich</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>dengh@umich.edu</t>
@@ -177,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +197,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -227,8 +242,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -538,7 +553,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -546,12 +561,15 @@
   <cols>
     <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -561,321 +579,370 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,12 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -242,8 +236,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -633,7 +627,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -647,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -828,7 +822,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
       </c>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>School</t>
   </si>
@@ -34,19 +34,16 @@
     <t>Pass</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
     <t>Kiyoul Yang</t>
   </si>
   <si>
-    <t>Evelyn Hu</t>
-  </si>
-  <si>
-    <t>Harvard</t>
-  </si>
-  <si>
-    <t>Kang-Kuen Ni</t>
-  </si>
-  <si>
-    <t>Su-Yang Xu</t>
+    <t>yes</t>
   </si>
   <si>
     <t>Cornell</t>
@@ -76,9 +73,6 @@
     <t>Yale</t>
   </si>
   <si>
-    <t>Hong Tang</t>
-  </si>
-  <si>
     <t>Mengxia Liu</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Meng</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>UIUC</t>
   </si>
   <si>
@@ -130,6 +121,9 @@
     <t>Bai</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -160,13 +154,19 @@
     <t>dengh@umich.edu</t>
   </si>
   <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Yongjie Hu</t>
+    <t>UPenn</t>
+  </si>
+  <si>
+    <t>Liang Wu</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Haozhe Wang</t>
   </si>
   <si>
     <t>Rice</t>
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -228,18 +240,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -547,177 +580,173 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -730,100 +759,90 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3">
+      <c r="C14" s="7">
         <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -831,113 +850,129 @@
       <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="I14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>47</v>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>50</v>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+  <si>
+    <t>套15</t>
+  </si>
+  <si>
+    <t>回6面4</t>
+  </si>
   <si>
     <t>School</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>已面2过2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -44,6 +53,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Brown,Rice</t>
   </si>
   <si>
     <t>Cornell</t>
@@ -260,13 +272,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -591,14 +603,16 @@
     <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="21.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="17.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="35.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
@@ -609,65 +623,71 @@
       <c r="I1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -676,11 +696,11 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
@@ -691,15 +711,15 @@
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -708,15 +728,15 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -725,41 +745,41 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
@@ -769,12 +789,12 @@
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -784,17 +804,17 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -803,16 +823,16 @@
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
@@ -820,38 +840,38 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -859,10 +879,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -874,15 +894,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -892,15 +912,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -909,15 +929,15 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="8" t="s">
-        <v>6</v>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -926,15 +946,15 @@
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -943,14 +963,14 @@
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
@@ -958,22 +978,22 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>套15</t>
   </si>
   <si>
-    <t>回6面4</t>
+    <t>回8面5</t>
+  </si>
+  <si>
+    <t>周五两点半</t>
   </si>
   <si>
     <t>School</t>
@@ -40,84 +43,102 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>已面2过2</t>
+    <t>已面5过4</t>
+  </si>
+  <si>
+    <t>下周一十一点</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Kiyoul Yang</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Brown,Rice，Purdue</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Xiaomeng Liu</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Caltech</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>Uchi</t>
+  </si>
+  <si>
+    <t>Tian Zhong</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Tian-Ming Fu</t>
+  </si>
+  <si>
+    <t>Saien Xie</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Harvard</t>
-  </si>
-  <si>
-    <t>Kiyoul Yang</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Brown,Rice</t>
-  </si>
-  <si>
-    <t>Cornell</t>
-  </si>
-  <si>
-    <t>Xiaomeng Liu</t>
-  </si>
-  <si>
-    <t>Caltech</t>
-  </si>
-  <si>
-    <t>Ye</t>
-  </si>
-  <si>
-    <t>Uchi</t>
-  </si>
-  <si>
-    <t>Tian Zhong</t>
-  </si>
-  <si>
-    <t>Princeton</t>
-  </si>
-  <si>
-    <t>Saien Xie</t>
-  </si>
-  <si>
     <t>Yale</t>
   </si>
   <si>
+    <t>Fengnian Xia</t>
+  </si>
+  <si>
     <t>Mengxia Liu</t>
   </si>
   <si>
+    <t>Haoning Tang</t>
+  </si>
+  <si>
     <t>Eric Y. Ma</t>
   </si>
   <si>
+    <t>Feng Wang</t>
+  </si>
+  <si>
+    <t>Aziza Suleymanzade</t>
+  </si>
+  <si>
+    <t>UIUC</t>
+  </si>
+  <si>
+    <t>Yun-Sheng Chen</t>
+  </si>
+  <si>
+    <t>Kejie Fang</t>
+  </si>
+  <si>
+    <t>Hyunseok Kim</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>xuxd@uw.edu.</t>
+  </si>
+  <si>
     <t>Mengjie Yu</t>
   </si>
   <si>
-    <t>Haoning Tang</t>
-  </si>
-  <si>
-    <t>UCB</t>
-  </si>
-  <si>
-    <t>Feng Wang</t>
-  </si>
-  <si>
-    <t>Meng</t>
-  </si>
-  <si>
-    <t>UIUC</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
-    <t>xuxd@uw.edu.</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
@@ -148,25 +169,28 @@
     <t>zenglab2024</t>
   </si>
   <si>
-    <t>zeng reply</t>
-  </si>
-  <si>
-    <t>WJ</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
     <t>Umich</t>
   </si>
   <si>
+    <t>Zheshen Zhang</t>
+  </si>
+  <si>
     <t>dengh@umich.edu</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>Zhaohui Zhong</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon</t>
+  </si>
+  <si>
+    <t>JYOTI KATOCH</t>
+  </si>
+  <si>
+    <t>Sufei Shi</t>
+  </si>
+  <si>
+    <t>Xu Zhang</t>
   </si>
   <si>
     <t>UPenn</t>
@@ -175,16 +199,46 @@
     <t>Liang Wu</t>
   </si>
   <si>
-    <t>Duke</t>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Nathaniel Stern</t>
   </si>
   <si>
     <t>Haozhe Wang</t>
   </si>
   <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>HKU</t>
+  </si>
+  <si>
+    <t>DongKeun Ki</t>
+  </si>
+  <si>
+    <t>Chaoliang Tan</t>
+  </si>
+  <si>
+    <t>HKUST</t>
+  </si>
+  <si>
+    <t>Berthold Jäck</t>
+  </si>
+  <si>
+    <t>CUHK</t>
+  </si>
+  <si>
+    <t>Ren Bao Liu</t>
+  </si>
+  <si>
+    <t>SUN, Xiankai</t>
+  </si>
+  <si>
     <t>Rice</t>
   </si>
   <si>
-    <t>APP</t>
+    <t>APP/ECE</t>
   </si>
   <si>
     <t>Huang</t>
@@ -198,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,18 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -252,40 +294,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -592,24 +631,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,378 +661,438 @@
       <c r="H1" s="3"/>
       <c r="I1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9" t="s">
-        <v>9</v>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="3" t="s">
-        <v>12</v>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>套15</t>
   </si>
@@ -94,154 +94,193 @@
     <t>Saien Xie</t>
   </si>
   <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Fengnian Xia</t>
+  </si>
+  <si>
+    <t>Mengxia Liu</t>
+  </si>
+  <si>
+    <t>Haoning Tang</t>
+  </si>
+  <si>
+    <t>Eric Y. Ma</t>
+  </si>
+  <si>
+    <t>Feng Wang</t>
+  </si>
+  <si>
+    <t>Aziza Suleymanzade</t>
+  </si>
+  <si>
+    <t>UIUC</t>
+  </si>
+  <si>
+    <t>Yun-Sheng Chen</t>
+  </si>
+  <si>
+    <t>Kejie Fang</t>
+  </si>
+  <si>
+    <t>Hyunseok Kim</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>xuxd@uw.edu.</t>
+  </si>
+  <si>
+    <t>Mengjie Yu</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Yunqiu Kelly Luo</t>
+  </si>
+  <si>
+    <t>Anupam Madhukar</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Hanzhe Liu</t>
+  </si>
+  <si>
+    <t>Tongcang (Tony) Li</t>
+  </si>
+  <si>
+    <t>zenglab2024</t>
+  </si>
+  <si>
+    <t>Umich</t>
+  </si>
+  <si>
+    <t>Zheshen Zhang</t>
+  </si>
+  <si>
+    <t>dengh@umich.edu</t>
+  </si>
+  <si>
+    <t>Zhaohui Zhong</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon</t>
+  </si>
+  <si>
+    <t>JYOTI KATOCH</t>
+  </si>
+  <si>
+    <t>Sufei Shi</t>
+  </si>
+  <si>
+    <t>Xu Zhang</t>
+  </si>
+  <si>
+    <t>UPenn</t>
+  </si>
+  <si>
+    <t>Liang Wu</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Nathaniel Stern</t>
+  </si>
+  <si>
+    <t>Haozhe Wang</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>HK:</t>
+  </si>
+  <si>
+    <t>HKU</t>
+  </si>
+  <si>
+    <t>DongKeun Ki</t>
+  </si>
+  <si>
+    <t>Chaoliang Tan</t>
+  </si>
+  <si>
+    <t>HKUST</t>
+  </si>
+  <si>
+    <t>Berthold Jäck</t>
+  </si>
+  <si>
+    <t>CUHK</t>
+  </si>
+  <si>
+    <t>Ren Bao Liu</t>
+  </si>
+  <si>
+    <t>SUN, Xiankai</t>
+  </si>
+  <si>
+    <t>Sin:</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>Professor ARIANDO</t>
+  </si>
+  <si>
+    <t>Li Xinwei</t>
+  </si>
+  <si>
+    <t>Alexey Berdyugin</t>
+  </si>
+  <si>
+    <t>Goki Eda</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Fengnian Xia</t>
-  </si>
-  <si>
-    <t>Mengxia Liu</t>
-  </si>
-  <si>
-    <t>Haoning Tang</t>
-  </si>
-  <si>
-    <t>Eric Y. Ma</t>
-  </si>
-  <si>
-    <t>Feng Wang</t>
-  </si>
-  <si>
-    <t>Aziza Suleymanzade</t>
-  </si>
-  <si>
-    <t>UIUC</t>
-  </si>
-  <si>
-    <t>Yun-Sheng Chen</t>
-  </si>
-  <si>
-    <t>Kejie Fang</t>
-  </si>
-  <si>
-    <t>Hyunseok Kim</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
-    <t>xuxd@uw.edu.</t>
-  </si>
-  <si>
-    <t>Mengjie Yu</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Yunqiu Kelly Luo</t>
-  </si>
-  <si>
-    <t>Anupam Madhukar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Bai</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Hanzhe Liu</t>
-  </si>
-  <si>
-    <t>Tongcang (Tony) Li</t>
-  </si>
-  <si>
-    <t>zenglab2024</t>
-  </si>
-  <si>
-    <t>Umich</t>
-  </si>
-  <si>
-    <t>Zheshen Zhang</t>
-  </si>
-  <si>
-    <t>dengh@umich.edu</t>
-  </si>
-  <si>
-    <t>Zhaohui Zhong</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon</t>
-  </si>
-  <si>
-    <t>JYOTI KATOCH</t>
-  </si>
-  <si>
-    <t>Sufei Shi</t>
-  </si>
-  <si>
-    <t>Xu Zhang</t>
-  </si>
-  <si>
-    <t>UPenn</t>
-  </si>
-  <si>
-    <t>Liang Wu</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>Nathaniel Stern</t>
-  </si>
-  <si>
-    <t>Haozhe Wang</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>HKU</t>
-  </si>
-  <si>
-    <t>DongKeun Ki</t>
-  </si>
-  <si>
-    <t>Chaoliang Tan</t>
-  </si>
-  <si>
-    <t>HKUST</t>
-  </si>
-  <si>
-    <t>Berthold Jäck</t>
-  </si>
-  <si>
-    <t>CUHK</t>
-  </si>
-  <si>
-    <t>Ren Bao Liu</t>
-  </si>
-  <si>
-    <t>SUN, Xiankai</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>APP/ECE</t>
-  </si>
-  <si>
-    <t>Huang</t>
+    <t>Cuong Dang</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>Gao Weibo</t>
+  </si>
+  <si>
+    <t>SU Rui</t>
+  </si>
+  <si>
+    <t>Weibo Gao</t>
+  </si>
+  <si>
+    <t>Sanghoon Chae</t>
+  </si>
+  <si>
+    <t>Guangwei Hu</t>
+  </si>
+  <si>
+    <t>SONG Peng</t>
+  </si>
+  <si>
+    <t>Wong Liang Jie</t>
   </si>
   <si>
     <t>Xzq04100310!</t>
@@ -252,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +302,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -294,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -308,17 +353,23 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -631,21 +682,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -778,9 +829,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -788,13 +837,13 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="s">
@@ -805,19 +854,19 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -830,16 +879,16 @@
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -849,11 +898,11 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -866,17 +915,17 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
@@ -887,15 +936,15 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -906,20 +955,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -927,16 +974,16 @@
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
@@ -946,20 +993,20 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="1"/>
@@ -969,11 +1016,11 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3" t="s">
@@ -984,16 +1031,16 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1"/>
@@ -1007,22 +1054,20 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1032,16 +1077,14 @@
       <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1050,13 +1093,13 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1066,33 +1109,79 @@
       <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="7"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>套15</t>
   </si>
@@ -241,43 +241,22 @@
     <t>NUS</t>
   </si>
   <si>
-    <t>Professor ARIANDO</t>
+    <t>Goki Eda</t>
   </si>
   <si>
     <t>Li Xinwei</t>
   </si>
   <si>
-    <t>Alexey Berdyugin</t>
-  </si>
-  <si>
-    <t>Goki Eda</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Cuong Dang</t>
-  </si>
-  <si>
     <t>NTU</t>
   </si>
   <si>
-    <t>Gao Weibo</t>
+    <t>Sanghoon Chae</t>
   </si>
   <si>
     <t>SU Rui</t>
-  </si>
-  <si>
-    <t>Weibo Gao</t>
-  </si>
-  <si>
-    <t>Sanghoon Chae</t>
-  </si>
-  <si>
-    <t>Guangwei Hu</t>
-  </si>
-  <si>
-    <t>SONG Peng</t>
   </si>
   <si>
     <t>Wong Liang Jie</t>
@@ -339,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -362,11 +341,20 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,15 +676,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1128,60 +1116,60 @@
       <c r="F23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>78</v>
+      <c r="H23" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>79</v>
+      <c r="C25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Apply/School list.xlsx
+++ b/assets/Apply/School list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>套15</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Saien Xie</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Yale</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>HK</t>
   </si>
   <si>
-    <t>HK:</t>
-  </si>
-  <si>
     <t>HKU</t>
   </si>
   <si>
@@ -235,31 +235,13 @@
     <t>SUN, Xiankai</t>
   </si>
   <si>
-    <t>Sin:</t>
-  </si>
-  <si>
-    <t>NUS</t>
-  </si>
-  <si>
-    <t>Goki Eda</t>
-  </si>
-  <si>
-    <t>Li Xinwei</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>Sanghoon Chae</t>
-  </si>
-  <si>
-    <t>SU Rui</t>
-  </si>
-  <si>
-    <t>Wong Liang Jie</t>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>APP/ECE</t>
+  </si>
+  <si>
+    <t>Huang</t>
   </si>
   <si>
     <t>Xzq04100310!</t>
@@ -270,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,12 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -332,32 +308,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -670,21 +631,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -817,7 +778,9 @@
         <v>25</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -825,13 +788,13 @@
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="s">
@@ -842,19 +805,19 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -867,16 +830,16 @@
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -886,11 +849,11 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -903,17 +866,17 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
@@ -924,15 +887,15 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -943,18 +906,20 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -962,39 +927,39 @@
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="1"/>
@@ -1004,11 +969,11 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3" t="s">
@@ -1016,19 +981,19 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1"/>
@@ -1042,20 +1007,22 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1065,14 +1032,16 @@
       <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1081,13 +1050,13 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1097,79 +1066,33 @@
       <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
